--- a/sampleFiles/Oilsands/Base Plant Sample_AP01.xlsx
+++ b/sampleFiles/Oilsands/Base Plant Sample_AP01.xlsx
@@ -1,50 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abmanzoor\Desktop\Suncor\Interfaces\Fort Hills\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{661908AA-0670-40EA-AF35-D0C6DE01F841}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CA79DC9B-DC28-46FC-9FD6-3151E7D59208}"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
-    <sheet name="Base Plant SAP Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Azure Data Load" sheetId="1" r:id="rId1"/>
     <sheet name="Test" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={F7935545-A3CD-41AF-9B75-FD867EC37215}</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{F7935545-A3CD-41AF-9B75-FD867EC37215}">
+    <comment ref="C4" authorId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Sold products,  tracked daily
 Reply:
     OSA, OSN, OSB included</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -117,33 +107,189 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +302,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -180,6 +512,21 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -190,53 +537,318 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Manzoor, Abdullah" id="{DA097BFD-5CED-4FB5-AB9E-8C70DD3819F2}" userId="S::abmanzoor@deloitte.ca::371ce3e4-9662-419e-82f2-9af401301140" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -282,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -315,26 +927,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -367,23 +962,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -525,43 +1103,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C4" dT="2021-01-06T16:15:34.41" personId="{DA097BFD-5CED-4FB5-AB9E-8C70DD3819F2}" id="{F7935545-A3CD-41AF-9B75-FD867EC37215}">
-    <text>Sold products,  tracked daily</text>
-  </threadedComment>
-  <threadedComment ref="C4" dT="2021-01-06T16:17:27.24" personId="{DA097BFD-5CED-4FB5-AB9E-8C70DD3819F2}" id="{0147BE1D-3B4D-4C6E-9F0A-EE2CAFB698E7}" parentId="{F7935545-A3CD-41AF-9B75-FD867EC37215}">
-    <text>OSA, OSN, OSB included</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1BC09A-F991-4707-802B-800EBEA06985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.5416666666667" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.45" customWidth="1"/>
+    <col min="9" max="9" width="16.725" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" ht="13.2" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,285 +1148,290 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="13.2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>44126</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
-        <v>3530.9053899999999</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3540.6358599999999</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>9.7304700000000004</v>
+      <c r="E2" s="2">
+        <v>3530.90539</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3540.63586</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>9.73047</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>44126</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
-        <v>3327.4054900000001</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3498.9832000000001</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="E3" s="5">
+        <v>3327.40549</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3498.9832</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>171.57771</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>44126</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6">
-        <v>8433.3798800000004</v>
-      </c>
-      <c r="F4" s="6">
-        <v>8121.1135999999997</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-312.26627999999999</v>
+      <c r="E4" s="5">
+        <v>8433.37988</v>
+      </c>
+      <c r="F4" s="5">
+        <v>8121.1136</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-312.26628</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>44126</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
-        <v>2047.0795499999999</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5">
+        <v>2047.07955</v>
+      </c>
+      <c r="F5" s="5">
         <v>1580.84881</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>-466.23074000000003</v>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-466.23074</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>44126</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6">
-        <v>14737.290370000001</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="5">
+        <v>14737.29037</v>
+      </c>
+      <c r="F6" s="5">
         <v>13735.03429</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>-1002.25608</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>44126</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6">
-        <v>7097.7452000000003</v>
-      </c>
-      <c r="F7" s="6">
-        <v>6724.5569800000003</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="E7" s="5">
+        <v>7097.7452</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6724.55698</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>-373.18822</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>44128</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6">
-        <v>11570.343580000001</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="5">
+        <v>11570.34358</v>
+      </c>
+      <c r="F8" s="5">
         <v>11715.60007</v>
       </c>
-      <c r="G8" s="3">
-        <v>801.47628999999995</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>-656.21979999999996</v>
+      <c r="G8" s="2">
+        <v>801.47629</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>-656.2198</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" ht="13.2" spans="1:9">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>44128</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6">
-        <v>9474.6951200000003</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="5">
+        <v>9474.69512</v>
+      </c>
+      <c r="F9" s="5">
         <v>10059.48243</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>584.78731000000005</v>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>584.78731</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>44128</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>104.75861</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>117.51597</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>12.75736</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41ED425D-582F-473F-8493-FF37CA40E443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sampleFiles/Oilsands/Base Plant Sample_AP01.xlsx
+++ b/sampleFiles/Oilsands/Base Plant Sample_AP01.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="11520" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Azure Data Load" sheetId="1" r:id="rId1"/>
+    <sheet name="Azure Load" sheetId="1" r:id="rId1"/>
     <sheet name="Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -109,9 +109,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -133,6 +133,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -142,29 +194,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,107 +261,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,19 +304,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,163 +442,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,13 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,11 +561,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,17 +606,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,39 +624,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,130 +655,130 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
